--- a/WhatsApp_Automation/bin/Debug/DBX.xlsx
+++ b/WhatsApp_Automation/bin/Debug/DBX.xlsx
@@ -8,14 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software\Programming\c#\WhatsAppAutomation\WhatsApp_Automation\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894C4229-560B-441E-A388-4DFD67B75C88}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD343032-DD11-464F-A742-A88F37EC11AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="MySheet" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet 1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Name</t>
   </si>
@@ -35,37 +33,52 @@
     <t>Message</t>
   </si>
   <si>
-    <t>PhotoPath</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>My Sister</t>
-  </si>
-  <si>
-    <t>Welcome From My App 1</t>
-  </si>
-  <si>
-    <t>Welcome From My App 2</t>
-  </si>
-  <si>
-    <t>Welcome From My App 3</t>
-  </si>
-  <si>
-    <t>Welcome From My App 4</t>
-  </si>
-  <si>
-    <t>My Mother</t>
-  </si>
-  <si>
-    <t>C:\Users\EngSherifMostafa\Desktop\Capture.PNG</t>
-  </si>
-  <si>
-    <t>C:\Users\EngSherifMostafa\Desktop\Capture2.PNG</t>
-  </si>
-  <si>
-    <t>PhotoDesc</t>
+    <t>Photo Path</t>
+  </si>
+  <si>
+    <t>Photo Description</t>
+  </si>
+  <si>
+    <t>test 1</t>
+  </si>
+  <si>
+    <t>test 2</t>
+  </si>
+  <si>
+    <t>test 1 welcome</t>
+  </si>
+  <si>
+    <t>test 2 welcome</t>
+  </si>
+  <si>
+    <t>test 4 welcome</t>
+  </si>
+  <si>
+    <t>test 3 welcome</t>
+  </si>
+  <si>
+    <t>test 1 Photo</t>
+  </si>
+  <si>
+    <t>test 3 Photo</t>
+  </si>
+  <si>
+    <t>test 2 Photo</t>
+  </si>
+  <si>
+    <t>test 4 Photo</t>
+  </si>
+  <si>
+    <t>..</t>
+  </si>
+  <si>
+    <t>test 4</t>
+  </si>
+  <si>
+    <t>test 386</t>
+  </si>
+  <si>
+    <t>C:\Users</t>
   </si>
 </sst>
 </file>
@@ -382,75 +395,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="3" width="50.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96CC27CC-9964-449B-B19A-DEA46875A31B}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -470,38 +416,63 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
         <v>12</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DDDBF8E-A54E-41FA-89C1-2CDBB064E65F}">
-  <dimension ref="A2:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" activeCellId="1" sqref="A1 B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
